--- a/論文関係/Book1.xlsx
+++ b/論文関係/Book1.xlsx
@@ -1,23 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaili\Documents\Unity\SotugyouKenkyuu\論文関係\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DFD562-4F29-4466-B4E5-08B13791C9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="20475" windowHeight="7170"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
-  <si>
-    <t>施策名</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>ブレンドモーション</t>
   </si>
@@ -47,9 +63,6 @@
   </si>
   <si>
     <t>ラスタースクロール</t>
-  </si>
-  <si>
-    <t>ポリゴンの強調</t>
   </si>
   <si>
     <t>×</t>
@@ -327,6 +340,205 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理負荷を軽減することができる</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装コストが高い</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース消費に対して効果がある</t>
+    <rPh sb="4" eb="6">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本研究で最も効果が高かった</t>
+    <rPh sb="0" eb="3">
+      <t>ホンケンキュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装難度に対して効果が大きい</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御が簡単である</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装が容易である</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果が高く実装も容易である</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに気づかれにくい</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリ使用率が高い</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果が薄い</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリゴン強調</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPU負荷が大きい
+視認性が悪くなる</t>
+    <rPh sb="3" eb="5">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シニンセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果がなく実装難度
+負荷ともに高い</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーションによっては破綻が発生</t>
+    <rPh sb="10" eb="12">
+      <t>ハタン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレンドモーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法</t>
+    <rPh sb="0" eb="2">
+      <t>シュホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -334,7 +546,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +579,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -375,29 +587,430 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -410,14 +1023,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -455,7 +1071,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -527,7 +1143,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -700,11 +1316,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -713,385 +1329,386 @@
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="37.375" customWidth="1"/>
     <col min="8" max="8" width="34.25" customWidth="1"/>
-    <col min="11" max="11" width="30.75" customWidth="1"/>
-    <col min="12" max="12" width="36.25" customWidth="1"/>
-    <col min="13" max="13" width="35.75" customWidth="1"/>
+    <col min="11" max="11" width="25.25" customWidth="1"/>
+    <col min="12" max="12" width="32.5" customWidth="1"/>
+    <col min="13" max="13" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>18</v>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="9" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="E9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>45</v>
+      <c r="M9" s="27" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/論文関係/Book1.xlsx
+++ b/論文関係/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaili\Documents\Unity\SotugyouKenkyuu\論文関係\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\school\Documents\UnityProject\Sotsuken\論文関係\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DFD562-4F29-4466-B4E5-08B13791C9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7535A7EA-C6C6-4DD3-87F1-F967A42B7331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
-  <si>
-    <t>ブレンドモーション</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>◎</t>
   </si>
@@ -66,34 +63,6 @@
   </si>
   <si>
     <t>×</t>
-  </si>
-  <si>
-    <t>実装難度</t>
-    <rPh sb="0" eb="4">
-      <t>ジッソウナンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CPU負荷</t>
-    <rPh sb="3" eb="5">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GPU負荷</t>
-    <rPh sb="3" eb="5">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモリ占有量</t>
-    <rPh sb="3" eb="6">
-      <t>センユウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>長所</t>
@@ -181,10 +150,6 @@
     <rPh sb="0" eb="1">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>効果</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -540,6 +505,63 @@
     <rPh sb="0" eb="2">
       <t>シュホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Motion blend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Limit frame rate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Texture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cold Expression</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Emission particle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character particle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Raster scroll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Implementation
+cost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU load</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPU load</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Memory usage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Emphasis on polygons</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -547,7 +569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +592,13 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -919,25 +948,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,15 +970,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,13 +982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -995,9 +1006,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,6 +1019,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1320,393 +1364,396 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="F1" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="37.375" customWidth="1"/>
-    <col min="8" max="8" width="34.25" customWidth="1"/>
-    <col min="11" max="11" width="25.25" customWidth="1"/>
-    <col min="12" max="12" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="8" max="8" width="34.21875" customWidth="1"/>
+    <col min="11" max="11" width="25.21875" customWidth="1"/>
+    <col min="12" max="12" width="32.44140625" customWidth="1"/>
     <col min="13" max="13" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="K1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>16</v>
+      <c r="D8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>61</v>
+    <row r="9" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
